--- a/src/test/resources/Run_Manager_Security_Deposit.xlsx
+++ b/src/test/resources/Run_Manager_Security_Deposit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Finalized Run Managers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE73C14-2141-41A9-BE50-7C8DF4BE4A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2FE892-E988-4D3F-850A-C5A6C0C1B804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="529">
   <si>
     <t>P_Key</t>
   </si>
@@ -110,9 +110,6 @@
     <t>ResidentialContract~TC_01</t>
   </si>
   <si>
-    <t>WEB_TC_01</t>
-  </si>
-  <si>
     <t>web</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>ResidentialContract~TC_02</t>
   </si>
   <si>
-    <t>WEB_TC_02</t>
-  </si>
-  <si>
     <t>Tenant Approve The Contract</t>
   </si>
   <si>
@@ -149,18 +143,12 @@
     <t>ResidentialContract~TC_03</t>
   </si>
   <si>
-    <t>WEB_TC_03</t>
-  </si>
-  <si>
     <t>Create Residential Contract Less than 3 months</t>
   </si>
   <si>
     <t>ResidentialContractLessThanThreeMonths</t>
   </si>
   <si>
-    <t>WEB_TC_04</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -170,18 +158,12 @@
     <t>ApproveResidentialContractByLesserLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_05</t>
-  </si>
-  <si>
     <t>Tenant Approve Residential Contract Less than 3 months</t>
   </si>
   <si>
     <t>ApproveResidentialContractByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_06</t>
-  </si>
-  <si>
     <t>Commercial Contract</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>CommercialContract~TC_01</t>
   </si>
   <si>
-    <t>WEB_TC_07</t>
-  </si>
-  <si>
     <t>Lessor Approve Commercial Contract more than 3 months</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t>CommercialContract~TC_02</t>
   </si>
   <si>
-    <t>WEB_TC_08</t>
-  </si>
-  <si>
     <t>Tenant Approve Commercial Contract more than 3 months</t>
   </si>
   <si>
@@ -218,36 +194,24 @@
     <t>CommercialContract~TC_03</t>
   </si>
   <si>
-    <t>WEB_TC_09</t>
-  </si>
-  <si>
     <t>Create Commercial Contract less than 3 months</t>
   </si>
   <si>
     <t>CommercialContractLessThanThreeMonths</t>
   </si>
   <si>
-    <t>WEB_TC_10</t>
-  </si>
-  <si>
     <t>Lessor Approve Commercial Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveCommercialContractByLesserLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_11</t>
-  </si>
-  <si>
     <t>Tenant Approve Commercial Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveCommercialContractByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_12</t>
-  </si>
-  <si>
     <t>Residential Sublease Contract</t>
   </si>
   <si>
@@ -260,9 +224,6 @@
     <t>SubleaseContract~TC_01</t>
   </si>
   <si>
-    <t>WEB_TC_13</t>
-  </si>
-  <si>
     <t>Lessor Approve Residential Sublease Contract more than 3 months</t>
   </si>
   <si>
@@ -272,9 +233,6 @@
     <t>SubleaseContract~TC_02</t>
   </si>
   <si>
-    <t>WEB_TC_14</t>
-  </si>
-  <si>
     <t>Tenant Approve Residential Sublease Contract more than 3 months</t>
   </si>
   <si>
@@ -284,36 +242,24 @@
     <t>SubleaseContract~TC_03</t>
   </si>
   <si>
-    <t>WEB_TC_15</t>
-  </si>
-  <si>
     <t>Create Residential Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>ResidentialSubleaseContractLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_16</t>
-  </si>
-  <si>
     <t>Lessor Approve Residential Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveResidentialSubleaseByLesserLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_17</t>
-  </si>
-  <si>
     <t>Tenant Approve Residential Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveResidentialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_18</t>
-  </si>
-  <si>
     <t>Commercial Sublease Contract</t>
   </si>
   <si>
@@ -323,54 +269,36 @@
     <t>CommercialSubleaseContractMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_19</t>
-  </si>
-  <si>
     <t>Lessor Approve Commercial Sublease Contract more than 3 months</t>
   </si>
   <si>
     <t>ApproveCommercialSubleaseByLessorMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_20</t>
-  </si>
-  <si>
     <t>Tenant Approve Commercial Sublease Contract more than 3 months</t>
   </si>
   <si>
     <t>ApproveCommercialSubleaseByTenantMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_21</t>
-  </si>
-  <si>
     <t>Create Commercial Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>CommercialSubleaseContractLessThan3Month</t>
   </si>
   <si>
-    <t>WEB_TC_22</t>
-  </si>
-  <si>
     <t>Lessor Approve Commercial Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveCommercialSubleaseByLessorLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_23</t>
-  </si>
-  <si>
     <t>Tenant Approve Commercial Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveCommercialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_24</t>
-  </si>
-  <si>
     <t>Awqaf Residential Contract</t>
   </si>
   <si>
@@ -383,9 +311,6 @@
     <t>AwqafContract~TC_01</t>
   </si>
   <si>
-    <t>WEB_TC_25</t>
-  </si>
-  <si>
     <t>Lessor Approve  Awqaf Residential Contract more than 3 months</t>
   </si>
   <si>
@@ -395,9 +320,6 @@
     <t>AwqafContract~TC_02</t>
   </si>
   <si>
-    <t>WEB_TC_26</t>
-  </si>
-  <si>
     <t>Tenant Approve  Awqaf Residential Contract more than 3 months</t>
   </si>
   <si>
@@ -407,36 +329,24 @@
     <t>AwqafContract~TC_03</t>
   </si>
   <si>
-    <t>WEB_TC_27</t>
-  </si>
-  <si>
     <t>Create Awqaf Residential Contract less than 3 months</t>
   </si>
   <si>
     <t>AwqafResidentialContractLessThan3Month</t>
   </si>
   <si>
-    <t>WEB_TC_28</t>
-  </si>
-  <si>
     <t>Lessor Approve Awqaf Residential Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafResidentialByLessorLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_29</t>
-  </si>
-  <si>
     <t>Tenant Approve Awqaf Residential Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafResidentialByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_30</t>
-  </si>
-  <si>
     <t>Awqaf Commercial Contract</t>
   </si>
   <si>
@@ -446,54 +356,36 @@
     <t>AwqafCommercialContractMoreThan3Month</t>
   </si>
   <si>
-    <t>WEB_TC_31</t>
-  </si>
-  <si>
     <t>Lessor Approve Awqaf Commercial Contract more than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafCommercialByLessorMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_32</t>
-  </si>
-  <si>
     <t>Tenant Approve Awqaf Commercial Contract more than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafCommercialByTenantMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_33</t>
-  </si>
-  <si>
     <t>Create Awqaf Commercial Contract less than 3 months</t>
   </si>
   <si>
     <t>AwqafCommercialContractLessThan3Month</t>
   </si>
   <si>
-    <t>WEB_TC_34</t>
-  </si>
-  <si>
     <t>Lessor Approve Awqaf Commercial Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafCommercialByLessorLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_35</t>
-  </si>
-  <si>
     <t>Tenant Approve Awqaf Commercial Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafCommercialByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_36</t>
-  </si>
-  <si>
     <t>Awqaf Residential Sublease Contract</t>
   </si>
   <si>
@@ -506,9 +398,6 @@
     <t>AwqafSubleaseContract~TC_01</t>
   </si>
   <si>
-    <t>WEB_TC_37</t>
-  </si>
-  <si>
     <t>Lessor Approve Awqaf Residential Sublease Contract more than 3 months</t>
   </si>
   <si>
@@ -518,9 +407,6 @@
     <t>AwqafSubleaseContract~TC_02</t>
   </si>
   <si>
-    <t>WEB_TC_38</t>
-  </si>
-  <si>
     <t>Tenant Approve Awqaf Residential Sublease Contract more than 3 months</t>
   </si>
   <si>
@@ -530,36 +416,24 @@
     <t>AwqafSubleaseContract~TC_03</t>
   </si>
   <si>
-    <t>WEB_TC_39</t>
-  </si>
-  <si>
     <t>Create Awqaf Residential Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>AwqafResidentialSubleaseContractLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_40</t>
-  </si>
-  <si>
     <t>Lessor Approve Awqaf Residential Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafResidentialSubleaseByLesserLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_41</t>
-  </si>
-  <si>
     <t>Tenant Approve Awqaf Residential Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafResidentialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_42</t>
-  </si>
-  <si>
     <t>Awqaf Commercial Sublease Contract</t>
   </si>
   <si>
@@ -569,54 +443,36 @@
     <t>AwqafCommercialSubleaseContractMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_43</t>
-  </si>
-  <si>
     <t>Lessor Approve Awqaf Commercial Sublease Contract more than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafCommercialSubleaseByLessorMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_44</t>
-  </si>
-  <si>
     <t>Tenant Approve Awqaf Commercial Sublease Contract more than 3 months</t>
   </si>
   <si>
     <t>ApproveAwqafCommercialSubleaseByTenantMoreThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_45</t>
-  </si>
-  <si>
     <t>Create Awqaf Commercial Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>AwqafCommercialSubleaseContractLessThan3Month</t>
   </si>
   <si>
-    <t>WEB_TC_46</t>
-  </si>
-  <si>
     <t>Lessor Awqaf Commercial Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>AwqafApproveCommercialSubleaseByLessorLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_47</t>
-  </si>
-  <si>
     <t>Tenant Awqaf Commercial Sublease Contract less than 3 months</t>
   </si>
   <si>
     <t>AwqafApproveCommercialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_48</t>
-  </si>
-  <si>
     <t>Registration Feature</t>
   </si>
   <si>
@@ -1572,6 +1428,213 @@
   </si>
   <si>
     <t>Both parties Submit the move in and move out form with NO response (With damage)</t>
+  </si>
+  <si>
+    <t>Contracts_TC_01</t>
+  </si>
+  <si>
+    <t>Contracts_TC_02</t>
+  </si>
+  <si>
+    <t>Contracts_TC_03</t>
+  </si>
+  <si>
+    <t>Contracts_TC_04</t>
+  </si>
+  <si>
+    <t>Contracts_TC_05</t>
+  </si>
+  <si>
+    <t>Contracts_TC_06</t>
+  </si>
+  <si>
+    <t>Contracts_TC_07</t>
+  </si>
+  <si>
+    <t>Contracts_TC_08</t>
+  </si>
+  <si>
+    <t>Contracts_TC_09</t>
+  </si>
+  <si>
+    <t>Contracts_TC_10</t>
+  </si>
+  <si>
+    <t>Contracts_TC_11</t>
+  </si>
+  <si>
+    <t>Contracts_TC_12</t>
+  </si>
+  <si>
+    <t>Contracts_TC_13</t>
+  </si>
+  <si>
+    <t>Contracts_TC_14</t>
+  </si>
+  <si>
+    <t>Contracts_TC_15</t>
+  </si>
+  <si>
+    <t>Contracts_TC_16</t>
+  </si>
+  <si>
+    <t>Contracts_TC_17</t>
+  </si>
+  <si>
+    <t>Contracts_TC_18</t>
+  </si>
+  <si>
+    <t>Contracts_TC_19</t>
+  </si>
+  <si>
+    <t>Contracts_TC_20</t>
+  </si>
+  <si>
+    <t>Contracts_TC_21</t>
+  </si>
+  <si>
+    <t>Contracts_TC_22</t>
+  </si>
+  <si>
+    <t>Contracts_TC_23</t>
+  </si>
+  <si>
+    <t>Contracts_TC_24</t>
+  </si>
+  <si>
+    <t>Contracts_TC_25</t>
+  </si>
+  <si>
+    <t>Contracts_TC_26</t>
+  </si>
+  <si>
+    <t>Contracts_TC_27</t>
+  </si>
+  <si>
+    <t>Contracts_TC_28</t>
+  </si>
+  <si>
+    <t>Contracts_TC_29</t>
+  </si>
+  <si>
+    <t>Contracts_TC_30</t>
+  </si>
+  <si>
+    <t>Contracts_TC_31</t>
+  </si>
+  <si>
+    <t>Contracts_TC_32</t>
+  </si>
+  <si>
+    <t>Contracts_TC_33</t>
+  </si>
+  <si>
+    <t>Contracts_TC_34</t>
+  </si>
+  <si>
+    <t>Contracts_TC_35</t>
+  </si>
+  <si>
+    <t>Contracts_TC_36</t>
+  </si>
+  <si>
+    <t>Contracts_TC_37</t>
+  </si>
+  <si>
+    <t>Contracts_TC_38</t>
+  </si>
+  <si>
+    <t>Contracts_TC_39</t>
+  </si>
+  <si>
+    <t>Contracts_TC_40</t>
+  </si>
+  <si>
+    <t>Contracts_TC_41</t>
+  </si>
+  <si>
+    <t>Contracts_TC_42</t>
+  </si>
+  <si>
+    <t>Contracts_TC_43</t>
+  </si>
+  <si>
+    <t>Contracts_TC_44</t>
+  </si>
+  <si>
+    <t>Contracts_TC_45</t>
+  </si>
+  <si>
+    <t>Contracts_TC_46</t>
+  </si>
+  <si>
+    <t>Contracts_TC_47</t>
+  </si>
+  <si>
+    <t>Contracts_TC_48</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_01</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_02</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_03</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_04</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_05</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_06</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_07</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_08</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_09</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_10</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_11</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_12</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_13</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_14</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_15</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_16</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_17</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_18</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_19</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_20</t>
+  </si>
+  <si>
+    <t>SecurityDeposit_TC_21</t>
   </si>
 </sst>
 </file>
@@ -2491,11 +2554,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2506,7 +2569,7 @@
     <col min="4" max="4" width="73" style="2" customWidth="1"/>
     <col min="5" max="5" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -2559,7 +2622,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>14</v>
@@ -2606,16 +2669,16 @@
         <v>19</v>
       </c>
       <c r="G3" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="H3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K3" s="38">
         <v>1</v>
@@ -2633,28 +2696,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" s="42" t="s">
-        <v>28</v>
+        <v>461</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K4" s="38">
         <v>1</v>
@@ -2672,28 +2735,28 @@
         <v>16</v>
       </c>
       <c r="C5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="F5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="42" t="s">
-        <v>33</v>
+        <v>462</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K5" s="38">
         <v>1</v>
@@ -2711,28 +2774,28 @@
         <v>16</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>36</v>
+        <v>463</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K6" s="38">
         <v>1</v>
@@ -2750,28 +2813,28 @@
         <v>16</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K7" s="38">
         <v>1</v>
@@ -2789,28 +2852,28 @@
         <v>16</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K8" s="38">
         <v>1</v>
@@ -2825,31 +2888,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>48</v>
+        <v>466</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9" s="38">
         <v>1</v>
@@ -2864,31 +2927,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>51</v>
-      </c>
       <c r="G10" s="42" t="s">
-        <v>52</v>
+        <v>467</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K10" s="38">
         <v>1</v>
@@ -2903,31 +2966,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>56</v>
+        <v>468</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K11" s="38">
         <v>1</v>
@@ -2942,31 +3005,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>59</v>
+        <v>469</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12" s="38">
         <v>1</v>
@@ -2981,31 +3044,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>51</v>
-      </c>
       <c r="G13" s="42" t="s">
-        <v>62</v>
+        <v>470</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K13" s="38">
         <v>1</v>
@@ -3020,31 +3083,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>65</v>
+        <v>471</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K14" s="38">
         <v>1</v>
@@ -3059,31 +3122,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>70</v>
+        <v>472</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K15" s="38">
         <v>1</v>
@@ -3098,31 +3161,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>74</v>
+        <v>473</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K16" s="38">
         <v>1</v>
@@ -3137,31 +3200,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K17" s="38">
         <v>1</v>
@@ -3176,31 +3239,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K18" s="38">
         <v>1</v>
@@ -3215,31 +3278,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>82</v>
-      </c>
       <c r="E19" s="42" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>84</v>
+        <v>476</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19" s="38">
         <v>1</v>
@@ -3254,31 +3317,31 @@
         <v>18</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>87</v>
+        <v>477</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K20" s="38">
         <v>1</v>
@@ -3293,31 +3356,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>91</v>
+        <v>478</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K21" s="38">
         <v>1</v>
@@ -3332,31 +3395,31 @@
         <v>20</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>94</v>
+        <v>479</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22" s="38">
         <v>1</v>
@@ -3371,31 +3434,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>97</v>
+        <v>480</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K23" s="38">
         <v>1</v>
@@ -3410,31 +3473,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K24" s="38">
         <v>1</v>
@@ -3449,31 +3512,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>103</v>
+        <v>482</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K25" s="38">
         <v>1</v>
@@ -3488,31 +3551,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>106</v>
+        <v>483</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K26" s="38">
         <v>1</v>
@@ -3527,31 +3590,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>111</v>
+        <v>484</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K27" s="38">
         <v>1</v>
@@ -3566,31 +3629,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>115</v>
+        <v>485</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K28" s="38">
         <v>1</v>
@@ -3605,31 +3668,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>119</v>
+        <v>486</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K29" s="38">
         <v>1</v>
@@ -3644,31 +3707,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>122</v>
+        <v>487</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K30" s="38">
         <v>1</v>
@@ -3683,31 +3746,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>125</v>
+        <v>488</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K31" s="38">
         <v>1</v>
@@ -3722,31 +3785,31 @@
         <v>30</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>128</v>
+        <v>489</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K32" s="38">
         <v>1</v>
@@ -3761,31 +3824,31 @@
         <v>31</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>132</v>
+        <v>490</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K33" s="38">
         <v>1</v>
@@ -3800,31 +3863,31 @@
         <v>32</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>135</v>
+        <v>491</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K34" s="38">
         <v>1</v>
@@ -3839,31 +3902,31 @@
         <v>33</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>138</v>
+        <v>492</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K35" s="38">
         <v>1</v>
@@ -3878,31 +3941,31 @@
         <v>34</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>141</v>
+        <v>493</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K36" s="38">
         <v>1</v>
@@ -3917,31 +3980,31 @@
         <v>35</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G37" s="42" t="s">
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K37" s="38">
         <v>1</v>
@@ -3956,31 +4019,31 @@
         <v>36</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>147</v>
+        <v>495</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K38" s="38">
         <v>1</v>
@@ -3995,31 +4058,31 @@
         <v>37</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>152</v>
+        <v>496</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K39" s="38">
         <v>1</v>
@@ -4034,31 +4097,31 @@
         <v>38</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>156</v>
+        <v>497</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K40" s="38">
         <v>1</v>
@@ -4073,31 +4136,31 @@
         <v>39</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>160</v>
+        <v>498</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K41" s="38">
         <v>1</v>
@@ -4112,31 +4175,31 @@
         <v>40</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>163</v>
+        <v>499</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K42" s="38">
         <v>1</v>
@@ -4151,31 +4214,31 @@
         <v>41</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>166</v>
+        <v>500</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K43" s="38">
         <v>1</v>
@@ -4190,31 +4253,31 @@
         <v>42</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K44" s="38">
         <v>1</v>
@@ -4229,31 +4292,31 @@
         <v>43</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G45" s="42" t="s">
-        <v>173</v>
+        <v>502</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K45" s="38">
         <v>1</v>
@@ -4268,31 +4331,31 @@
         <v>44</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>176</v>
+        <v>503</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K46" s="38">
         <v>1</v>
@@ -4307,31 +4370,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>179</v>
+        <v>504</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K47" s="38">
         <v>1</v>
@@ -4346,31 +4409,31 @@
         <v>46</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K48" s="38">
         <v>1</v>
@@ -4385,31 +4448,31 @@
         <v>47</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>185</v>
+        <v>506</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K49" s="38">
         <v>1</v>
@@ -4424,31 +4487,31 @@
         <v>48</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>188</v>
+        <v>507</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K50" s="38">
         <v>1</v>
@@ -4463,10 +4526,10 @@
         <v>13</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="46"/>
@@ -4484,31 +4547,31 @@
         <v>49</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>448</v>
+        <v>434</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>508</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K52" s="38">
         <v>1</v>
@@ -4523,31 +4586,31 @@
         <v>50</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="G53" s="40" t="s">
-        <v>449</v>
+        <v>437</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>509</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K53" s="38">
         <v>1</v>
@@ -4562,31 +4625,31 @@
         <v>51</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>488</v>
+        <v>438</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>510</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K54" s="38">
         <v>1</v>
@@ -4601,31 +4664,31 @@
         <v>52</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>491</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>489</v>
+        <v>443</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>511</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K55" s="38">
         <v>1</v>
@@ -4640,31 +4703,31 @@
         <v>53</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>505</v>
+        <v>434</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K56" s="38">
         <v>1</v>
@@ -4679,31 +4742,31 @@
         <v>54</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>451</v>
+        <v>434</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>513</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K57" s="38">
         <v>1</v>
@@ -4718,31 +4781,31 @@
         <v>55</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>452</v>
+        <v>437</v>
+      </c>
+      <c r="G58" s="42" t="s">
+        <v>514</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J58" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K58" s="38">
         <v>1</v>
@@ -4757,31 +4820,31 @@
         <v>56</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>453</v>
+        <v>434</v>
+      </c>
+      <c r="G59" s="42" t="s">
+        <v>515</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J59" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K59" s="38">
         <v>1</v>
@@ -4796,31 +4859,31 @@
         <v>57</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>454</v>
+        <v>434</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>516</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J60" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K60" s="38">
         <v>1</v>
@@ -4835,31 +4898,31 @@
         <v>58</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>455</v>
+        <v>434</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>517</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K61" s="38">
         <v>1</v>
@@ -4871,13 +4934,13 @@
     </row>
     <row r="62" spans="1:13" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="56" t="s">
-        <v>504</v>
+        <v>456</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="46"/>
@@ -4895,31 +4958,31 @@
         <v>59</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="D63" s="57" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G63" s="57" t="s">
-        <v>456</v>
+        <v>434</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>518</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J63" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K63" s="38">
         <v>1</v>
@@ -4934,31 +4997,31 @@
         <v>60</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="D64" s="57" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="G64" s="57" t="s">
-        <v>457</v>
+        <v>437</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>519</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J64" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K64" s="38">
         <v>1</v>
@@ -4973,31 +5036,31 @@
         <v>61</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>475</v>
+        <v>427</v>
       </c>
       <c r="F65" s="42" t="s">
-        <v>486</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>488</v>
+        <v>438</v>
+      </c>
+      <c r="G65" s="42" t="s">
+        <v>520</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K65" s="38">
         <v>1</v>
@@ -5012,31 +5075,31 @@
         <v>62</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="F66" s="42" t="s">
-        <v>491</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>489</v>
+        <v>443</v>
+      </c>
+      <c r="G66" s="42" t="s">
+        <v>521</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K66" s="38">
         <v>1</v>
@@ -5051,31 +5114,31 @@
         <v>63</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>477</v>
+        <v>429</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G67" s="57" t="s">
-        <v>505</v>
+        <v>434</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>522</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K67" s="38">
         <v>1</v>
@@ -5090,31 +5153,31 @@
         <v>64</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="D68" s="57" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>478</v>
+        <v>430</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G68" s="57" t="s">
-        <v>458</v>
+        <v>434</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>523</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J68" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K68" s="38">
         <v>1</v>
@@ -5129,31 +5192,31 @@
         <v>65</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="D69" s="57" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="G69" s="57" t="s">
-        <v>459</v>
+        <v>437</v>
+      </c>
+      <c r="G69" s="42" t="s">
+        <v>524</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K69" s="38">
         <v>1</v>
@@ -5168,31 +5231,31 @@
         <v>66</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G70" s="57" t="s">
-        <v>453</v>
+        <v>434</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>525</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J70" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K70" s="38">
         <v>1</v>
@@ -5207,31 +5270,31 @@
         <v>67</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>481</v>
+        <v>433</v>
       </c>
       <c r="F71" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="G71" s="57" t="s">
-        <v>460</v>
+        <v>434</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>526</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J71" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K71" s="38">
         <v>1</v>
@@ -5246,31 +5309,31 @@
         <v>68</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="D72" s="58" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="G72" s="58" t="s">
-        <v>461</v>
+        <v>437</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K72" s="38">
         <v>1</v>
@@ -5285,31 +5348,31 @@
         <v>69</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C73" s="57" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="G73" s="57" t="s">
-        <v>462</v>
+        <v>439</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>528</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J73" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K73" s="38">
         <v>1</v>
@@ -5368,42 +5431,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>417</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5412,16 +5475,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -5430,16 +5493,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5448,214 +5511,214 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="J34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5663,10 +5726,10 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5674,13 +5737,13 @@
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="F38" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="J38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5688,13 +5751,13 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="F39" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5702,10 +5765,10 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="F40" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5741,31 +5804,31 @@
         <v>8</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K1" s="26">
         <v>1</v>
@@ -5779,31 +5842,31 @@
         <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K2" s="18">
         <v>1</v>
@@ -5817,31 +5880,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2">
         <v>1</v>
@@ -5855,31 +5918,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -5893,31 +5956,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K5" s="26">
         <v>1</v>
@@ -5931,31 +5994,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K6" s="26">
         <v>1</v>
@@ -5969,31 +6032,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K7" s="26">
         <v>1</v>
@@ -6010,28 +6073,28 @@
         <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -6045,31 +6108,31 @@
         <v>47</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -6083,31 +6146,31 @@
         <v>48</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -6121,31 +6184,31 @@
         <v>49</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -6159,31 +6222,31 @@
         <v>50</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -6197,31 +6260,31 @@
         <v>51</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -6235,31 +6298,31 @@
         <v>52</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -6273,31 +6336,31 @@
         <v>53</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -6311,31 +6374,31 @@
         <v>54</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -6349,31 +6412,31 @@
         <v>55</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -6387,31 +6450,31 @@
         <v>56</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -6425,31 +6488,31 @@
         <v>57</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -6463,31 +6526,31 @@
         <v>58</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>275</v>
-      </c>
       <c r="F20" s="21" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -6501,31 +6564,31 @@
         <v>59</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -6539,31 +6602,31 @@
         <v>60</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -6580,28 +6643,28 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -6618,28 +6681,28 @@
         <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -6656,28 +6719,28 @@
         <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6694,28 +6757,28 @@
         <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -6732,28 +6795,28 @@
         <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6770,28 +6833,28 @@
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6808,28 +6871,28 @@
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -6846,28 +6909,28 @@
         <v>16</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -6884,28 +6947,28 @@
         <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -6922,28 +6985,28 @@
         <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
@@ -6960,28 +7023,28 @@
         <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -6998,28 +7061,28 @@
         <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -7036,28 +7099,28 @@
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -7074,28 +7137,28 @@
         <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -7112,28 +7175,28 @@
         <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -7150,28 +7213,28 @@
         <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K38" s="2">
         <v>1</v>
@@ -7188,28 +7251,28 @@
         <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K39" s="2">
         <v>1</v>
@@ -7226,28 +7289,28 @@
         <v>16</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K40" s="2">
         <v>1</v>
@@ -7264,28 +7327,28 @@
         <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
@@ -7302,28 +7365,28 @@
         <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K42" s="2">
         <v>1</v>
@@ -7334,7 +7397,7 @@
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A43" s="65" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
@@ -7356,28 +7419,28 @@
         <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
@@ -7394,28 +7457,28 @@
         <v>16</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -7432,28 +7495,28 @@
         <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K46" s="2">
         <v>1</v>
@@ -7470,28 +7533,28 @@
         <v>16</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>345</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K47" s="2">
         <v>1</v>
@@ -7508,28 +7571,28 @@
         <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
@@ -7546,28 +7609,28 @@
         <v>16</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K49" s="2">
         <v>1</v>
@@ -7584,28 +7647,28 @@
         <v>16</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
@@ -7622,28 +7685,28 @@
         <v>16</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
@@ -7660,28 +7723,28 @@
         <v>16</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K52" s="2">
         <v>1</v>
@@ -7698,28 +7761,28 @@
         <v>16</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K53" s="2">
         <v>1</v>
@@ -7736,28 +7799,28 @@
         <v>16</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K54" s="2">
         <v>1</v>
@@ -7774,28 +7837,28 @@
         <v>16</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K55" s="2">
         <v>1</v>
@@ -7812,28 +7875,28 @@
         <v>16</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
@@ -7850,28 +7913,28 @@
         <v>16</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K57" s="2">
         <v>1</v>
@@ -7914,91 +7977,91 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="6" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="6" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="26"/>
@@ -8006,23 +8069,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="26"/>
@@ -8030,57 +8093,57 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="K5" s="26"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="6" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="26"/>
@@ -8088,27 +8151,27 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="26"/>
@@ -8116,22 +8179,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -8142,28 +8205,28 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -8210,60 +8273,60 @@
   <sheetData>
     <row r="1" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>483</v>
+        <v>435</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -8272,25 +8335,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -8299,50 +8362,50 @@
     </row>
     <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -8383,95 +8446,95 @@
   <sheetData>
     <row r="1" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -8483,19 +8546,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -8540,107 +8603,107 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -8654,19 +8717,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -8709,95 +8772,95 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -8809,19 +8872,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -8864,107 +8927,107 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -8978,19 +9041,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -9033,95 +9096,95 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>421</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -9133,19 +9196,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>

--- a/src/test/resources/Run_Manager_Security_Deposit.xlsx
+++ b/src/test/resources/Run_Manager_Security_Deposit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2FE892-E988-4D3F-850A-C5A6C0C1B804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FB6AB1-7261-4A10-AE6F-5F266B9BB11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="530">
   <si>
     <t>P_Key</t>
   </si>
@@ -1635,6 +1635,9 @@
   </si>
   <si>
     <t>SecurityDeposit_TC_21</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2558,10 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4568,7 +4571,7 @@
         <v>20</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J52" s="43" t="s">
         <v>33</v>
@@ -4607,7 +4610,7 @@
         <v>20</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J53" s="43" t="s">
         <v>33</v>
@@ -4646,7 +4649,7 @@
         <v>20</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J54" s="43" t="s">
         <v>33</v>
@@ -4685,7 +4688,7 @@
         <v>20</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J55" s="43" t="s">
         <v>33</v>
@@ -4724,7 +4727,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J56" s="43" t="s">
         <v>33</v>
@@ -4763,7 +4766,7 @@
         <v>20</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J57" s="43" t="s">
         <v>33</v>
@@ -4802,7 +4805,7 @@
         <v>20</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J58" s="43" t="s">
         <v>33</v>
@@ -4841,7 +4844,7 @@
         <v>20</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J59" s="43" t="s">
         <v>33</v>
@@ -4880,7 +4883,7 @@
         <v>20</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J60" s="43" t="s">
         <v>33</v>
@@ -4919,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J61" s="43" t="s">
         <v>33</v>
@@ -4979,7 +4982,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J63" s="43" t="s">
         <v>33</v>
@@ -5018,7 +5021,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J64" s="43" t="s">
         <v>33</v>
@@ -5057,7 +5060,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J65" s="43" t="s">
         <v>33</v>
@@ -5096,7 +5099,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J66" s="43" t="s">
         <v>33</v>
@@ -5135,7 +5138,7 @@
         <v>20</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J67" s="43" t="s">
         <v>33</v>
@@ -5174,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J68" s="43" t="s">
         <v>33</v>
@@ -5213,7 +5216,7 @@
         <v>20</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J69" s="43" t="s">
         <v>33</v>
@@ -5252,7 +5255,7 @@
         <v>20</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J70" s="43" t="s">
         <v>33</v>
@@ -5291,7 +5294,7 @@
         <v>20</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J71" s="43" t="s">
         <v>33</v>
@@ -5330,7 +5333,7 @@
         <v>20</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J72" s="43" t="s">
         <v>33</v>
@@ -5369,7 +5372,7 @@
         <v>20</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="J73" s="43" t="s">
         <v>33</v>
